--- a/assets/employee.xlsx
+++ b/assets/employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\onepage\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B7B66-4080-42C5-94E7-01B10BF782FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDF4529-4489-446E-AEAF-E84B13E1916C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1275" windowWidth="11595" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27570" yWindow="2835" windowWidth="14220" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,10 +518,10 @@
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
